--- a/file_counts.xlsx
+++ b/file_counts.xlsx
@@ -730,7 +730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>step 18 절취선</t>
+          <t>step 18 절취선</t>
         </is>
       </c>
       <c r="B19" t="n">
